--- a/20170927-devices/builds/development/data/maindata.xlsx
+++ b/20170927-devices/builds/development/data/maindata.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="940" windowWidth="27840" windowHeight="17540" activeTab="2"/>
+    <workbookView xWindow="4740" yWindow="940" windowWidth="27840" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="acs_2016" sheetId="3" r:id="rId1"/>
-    <sheet name="chitika_iphone" sheetId="4" r:id="rId2"/>
-    <sheet name="source" sheetId="2" r:id="rId3"/>
+    <sheet name="pew_data" sheetId="5" r:id="rId2"/>
+    <sheet name="chitika_iphone" sheetId="4" r:id="rId3"/>
+    <sheet name="source" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="375">
   <si>
     <t>2015, 2016</t>
   </si>
@@ -1112,7 +1113,40 @@
     <t>Chitika Insights, 2015</t>
   </si>
   <si>
-    <t>Source: U.S. Census Bureau, American Community Survey, Chitika Insights</t>
+    <t>pew_data</t>
+  </si>
+  <si>
+    <t>Pew Research Center demographics of device ownership</t>
+  </si>
+  <si>
+    <t>Pew Research Center, 2017</t>
+  </si>
+  <si>
+    <t>Source: U.S. Census Bureau, American Community Survey, Chitika Insights, Pew Research Center</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>y2000</t>
+  </si>
+  <si>
+    <t>y2016</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Home Broadband</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>Tablet</t>
   </si>
 </sst>
 </file>
@@ -5438,6 +5472,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2">
+        <v>0.52</v>
+      </c>
+      <c r="C2">
+        <v>0.88</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B3">
+        <v>0.01</v>
+      </c>
+      <c r="C3">
+        <v>0.73</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">C3-B3</f>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B4">
+        <v>0.05</v>
+      </c>
+      <c r="C4">
+        <v>0.69</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.6399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>0.35</v>
+      </c>
+      <c r="C5">
+        <v>0.77</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.42000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B6">
+        <v>0.03</v>
+      </c>
+      <c r="C6">
+        <v>0.51</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
@@ -6021,11 +6164,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6036,7 +6179,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6075,6 +6218,17 @@
       </c>
       <c r="C6" t="s">
         <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/20170927-devices/builds/development/data/maindata.xlsx
+++ b/20170927-devices/builds/development/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="940" windowWidth="27840" windowHeight="17540" activeTab="1"/>
+    <workbookView xWindow="2780" yWindow="280" windowWidth="27840" windowHeight="17540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="acs_2016" sheetId="3" r:id="rId1"/>
@@ -804,9 +804,6 @@
     <t>state</t>
   </si>
   <si>
-    <t>iphone_smartphone_share</t>
-  </si>
-  <si>
     <t>ab</t>
   </si>
   <si>
@@ -1147,6 +1144,9 @@
   </si>
   <si>
     <t>Tablet</t>
+  </si>
+  <si>
+    <t>iphone_share</t>
   </si>
 </sst>
 </file>
@@ -2500,7 +2500,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5474,29 +5474,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>369</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2">
         <v>0.52</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B3">
         <v>0.01</v>
@@ -5526,7 +5526,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B4">
         <v>0.05</v>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B6">
         <v>0.03</v>
@@ -5583,8 +5583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5594,18 +5594,18 @@
         <v>259</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>260</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
         <v>264</v>
-      </c>
-      <c r="B2" t="s">
-        <v>265</v>
       </c>
       <c r="C2">
         <v>65.5</v>
@@ -5613,10 +5613,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" t="s">
         <v>312</v>
-      </c>
-      <c r="B3" t="s">
-        <v>313</v>
       </c>
       <c r="C3">
         <v>60.1</v>
@@ -5624,10 +5624,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" t="s">
         <v>350</v>
-      </c>
-      <c r="B4" t="s">
-        <v>351</v>
       </c>
       <c r="C4">
         <v>59.4</v>
@@ -5635,10 +5635,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" t="s">
         <v>282</v>
-      </c>
-      <c r="B5" t="s">
-        <v>283</v>
       </c>
       <c r="C5">
         <v>58.7</v>
@@ -5646,10 +5646,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" t="s">
         <v>308</v>
-      </c>
-      <c r="B6" t="s">
-        <v>309</v>
       </c>
       <c r="C6">
         <v>58.7</v>
@@ -5657,10 +5657,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="s">
         <v>274</v>
-      </c>
-      <c r="B7" t="s">
-        <v>275</v>
       </c>
       <c r="C7">
         <v>58.1</v>
@@ -5668,10 +5668,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" t="s">
         <v>302</v>
-      </c>
-      <c r="B8" t="s">
-        <v>303</v>
       </c>
       <c r="C8">
         <v>56.6</v>
@@ -5679,10 +5679,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" t="s">
         <v>324</v>
-      </c>
-      <c r="B9" t="s">
-        <v>325</v>
       </c>
       <c r="C9">
         <v>56.2</v>
@@ -5690,10 +5690,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" t="s">
         <v>292</v>
-      </c>
-      <c r="B10" t="s">
-        <v>293</v>
       </c>
       <c r="C10">
         <v>55.6</v>
@@ -5701,10 +5701,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" t="s">
         <v>320</v>
-      </c>
-      <c r="B11" t="s">
-        <v>321</v>
       </c>
       <c r="C11">
         <v>55.3</v>
@@ -5712,10 +5712,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" t="s">
         <v>270</v>
-      </c>
-      <c r="B12" t="s">
-        <v>271</v>
       </c>
       <c r="C12">
         <v>53.3</v>
@@ -5723,10 +5723,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
         <v>296</v>
-      </c>
-      <c r="B13" t="s">
-        <v>297</v>
       </c>
       <c r="C13">
         <v>53.3</v>
@@ -5734,10 +5734,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" t="s">
         <v>342</v>
-      </c>
-      <c r="B14" t="s">
-        <v>343</v>
       </c>
       <c r="C14">
         <v>52.9</v>
@@ -5745,10 +5745,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" t="s">
         <v>356</v>
-      </c>
-      <c r="B15" t="s">
-        <v>357</v>
       </c>
       <c r="C15">
         <v>52.4</v>
@@ -5756,10 +5756,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" t="s">
         <v>318</v>
-      </c>
-      <c r="B16" t="s">
-        <v>319</v>
       </c>
       <c r="C16">
         <v>52.1</v>
@@ -5767,10 +5767,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>337</v>
+      </c>
+      <c r="B17" t="s">
         <v>338</v>
-      </c>
-      <c r="B17" t="s">
-        <v>339</v>
       </c>
       <c r="C17">
         <v>52</v>
@@ -5778,10 +5778,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" t="s">
         <v>286</v>
-      </c>
-      <c r="B18" t="s">
-        <v>287</v>
       </c>
       <c r="C18">
         <v>51.5</v>
@@ -5789,10 +5789,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" t="s">
         <v>280</v>
-      </c>
-      <c r="B19" t="s">
-        <v>281</v>
       </c>
       <c r="C19">
         <v>50.8</v>
@@ -5800,10 +5800,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20" t="s">
         <v>284</v>
-      </c>
-      <c r="B20" t="s">
-        <v>285</v>
       </c>
       <c r="C20">
         <v>50.8</v>
@@ -5811,10 +5811,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" t="s">
         <v>294</v>
-      </c>
-      <c r="B21" t="s">
-        <v>295</v>
       </c>
       <c r="C21">
         <v>50.5</v>
@@ -5822,10 +5822,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>315</v>
+      </c>
+      <c r="B22" t="s">
         <v>316</v>
-      </c>
-      <c r="B22" t="s">
-        <v>317</v>
       </c>
       <c r="C22">
         <v>50.5</v>
@@ -5833,10 +5833,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" t="s">
         <v>268</v>
-      </c>
-      <c r="B23" t="s">
-        <v>269</v>
       </c>
       <c r="C23">
         <v>50.4</v>
@@ -5844,10 +5844,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" t="s">
         <v>298</v>
-      </c>
-      <c r="B24" t="s">
-        <v>299</v>
       </c>
       <c r="C24">
         <v>50</v>
@@ -5855,10 +5855,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B25" t="s">
         <v>352</v>
-      </c>
-      <c r="B25" t="s">
-        <v>353</v>
       </c>
       <c r="C25">
         <v>50</v>
@@ -5866,10 +5866,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>333</v>
+      </c>
+      <c r="B26" t="s">
         <v>334</v>
-      </c>
-      <c r="B26" t="s">
-        <v>335</v>
       </c>
       <c r="C26">
         <v>49.7</v>
@@ -5877,10 +5877,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>335</v>
+      </c>
+      <c r="B27" t="s">
         <v>336</v>
-      </c>
-      <c r="B27" t="s">
-        <v>337</v>
       </c>
       <c r="C27">
         <v>49.5</v>
@@ -5888,10 +5888,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>359</v>
+      </c>
+      <c r="B28" t="s">
         <v>360</v>
-      </c>
-      <c r="B28" t="s">
-        <v>361</v>
       </c>
       <c r="C28">
         <v>49.5</v>
@@ -5899,10 +5899,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>313</v>
+      </c>
+      <c r="B29" t="s">
         <v>314</v>
-      </c>
-      <c r="B29" t="s">
-        <v>315</v>
       </c>
       <c r="C29">
         <v>49</v>
@@ -5910,10 +5910,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" t="s">
         <v>348</v>
-      </c>
-      <c r="B30" t="s">
-        <v>349</v>
       </c>
       <c r="C30">
         <v>49</v>
@@ -5921,10 +5921,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>327</v>
+      </c>
+      <c r="B31" t="s">
         <v>328</v>
-      </c>
-      <c r="B31" t="s">
-        <v>329</v>
       </c>
       <c r="C31">
         <v>48.5</v>
@@ -5932,10 +5932,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32" t="s">
         <v>272</v>
-      </c>
-      <c r="B32" t="s">
-        <v>273</v>
       </c>
       <c r="C32">
         <v>48.3</v>
@@ -5943,10 +5943,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>305</v>
+      </c>
+      <c r="B33" t="s">
         <v>306</v>
-      </c>
-      <c r="B33" t="s">
-        <v>307</v>
       </c>
       <c r="C33">
         <v>48.3</v>
@@ -5954,10 +5954,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>343</v>
+      </c>
+      <c r="B34" t="s">
         <v>344</v>
-      </c>
-      <c r="B34" t="s">
-        <v>345</v>
       </c>
       <c r="C34">
         <v>48</v>
@@ -5965,10 +5965,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B35" t="s">
         <v>300</v>
-      </c>
-      <c r="B35" t="s">
-        <v>301</v>
       </c>
       <c r="C35">
         <v>47.8</v>
@@ -5976,10 +5976,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>339</v>
+      </c>
+      <c r="B36" t="s">
         <v>340</v>
-      </c>
-      <c r="B36" t="s">
-        <v>341</v>
       </c>
       <c r="C36">
         <v>47.2</v>
@@ -5987,10 +5987,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>329</v>
+      </c>
+      <c r="B37" t="s">
         <v>330</v>
-      </c>
-      <c r="B37" t="s">
-        <v>331</v>
       </c>
       <c r="C37">
         <v>46.3</v>
@@ -5998,10 +5998,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>325</v>
+      </c>
+      <c r="B38" t="s">
         <v>326</v>
-      </c>
-      <c r="B38" t="s">
-        <v>327</v>
       </c>
       <c r="C38">
         <v>46.2</v>
@@ -6009,10 +6009,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" t="s">
         <v>278</v>
-      </c>
-      <c r="B39" t="s">
-        <v>279</v>
       </c>
       <c r="C39">
         <v>45.8</v>
@@ -6020,10 +6020,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>331</v>
+      </c>
+      <c r="B40" t="s">
         <v>332</v>
-      </c>
-      <c r="B40" t="s">
-        <v>333</v>
       </c>
       <c r="C40">
         <v>45.1</v>
@@ -6031,10 +6031,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>345</v>
+      </c>
+      <c r="B41" t="s">
         <v>346</v>
-      </c>
-      <c r="B41" t="s">
-        <v>347</v>
       </c>
       <c r="C41">
         <v>44.9</v>
@@ -6042,10 +6042,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" t="s">
         <v>266</v>
-      </c>
-      <c r="B42" t="s">
-        <v>267</v>
       </c>
       <c r="C42">
         <v>44.6</v>
@@ -6053,10 +6053,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B43" t="s">
         <v>288</v>
-      </c>
-      <c r="B43" t="s">
-        <v>289</v>
       </c>
       <c r="C43">
         <v>44.6</v>
@@ -6064,10 +6064,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" t="s">
         <v>304</v>
-      </c>
-      <c r="B44" t="s">
-        <v>305</v>
       </c>
       <c r="C44">
         <v>43.8</v>
@@ -6075,10 +6075,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>309</v>
+      </c>
+      <c r="B45" t="s">
         <v>310</v>
-      </c>
-      <c r="B45" t="s">
-        <v>311</v>
       </c>
       <c r="C45">
         <v>43.6</v>
@@ -6086,10 +6086,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>353</v>
+      </c>
+      <c r="B46" t="s">
         <v>354</v>
-      </c>
-      <c r="B46" t="s">
-        <v>355</v>
       </c>
       <c r="C46">
         <v>43.6</v>
@@ -6097,10 +6097,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>357</v>
+      </c>
+      <c r="B47" t="s">
         <v>358</v>
-      </c>
-      <c r="B47" t="s">
-        <v>359</v>
       </c>
       <c r="C47">
         <v>43.1</v>
@@ -6108,10 +6108,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>275</v>
+      </c>
+      <c r="B48" t="s">
         <v>276</v>
-      </c>
-      <c r="B48" t="s">
-        <v>277</v>
       </c>
       <c r="C48">
         <v>42.2</v>
@@ -6119,10 +6119,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>289</v>
+      </c>
+      <c r="B49" t="s">
         <v>290</v>
-      </c>
-      <c r="B49" t="s">
-        <v>291</v>
       </c>
       <c r="C49">
         <v>42.1</v>
@@ -6130,10 +6130,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>261</v>
+      </c>
+      <c r="B50" t="s">
         <v>262</v>
-      </c>
-      <c r="B50" t="s">
-        <v>263</v>
       </c>
       <c r="C50">
         <v>41.1</v>
@@ -6141,10 +6141,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>321</v>
+      </c>
+      <c r="B51" t="s">
         <v>322</v>
-      </c>
-      <c r="B51" t="s">
-        <v>323</v>
       </c>
       <c r="C51">
         <v>40.5</v>
@@ -6179,7 +6179,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6217,18 +6217,18 @@
         <v>258</v>
       </c>
       <c r="C6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B7" t="s">
         <v>363</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>364</v>
-      </c>
-      <c r="C7" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/20170927-devices/builds/development/data/maindata.xlsx
+++ b/20170927-devices/builds/development/data/maindata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="280" windowWidth="27840" windowHeight="17540" activeTab="3"/>
+    <workbookView xWindow="2780" yWindow="280" windowWidth="27840" windowHeight="17540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="acs_2016" sheetId="3" r:id="rId1"/>
     <sheet name="pew_data" sheetId="5" r:id="rId2"/>
     <sheet name="chitika_iphone" sheetId="4" r:id="rId3"/>
     <sheet name="source" sheetId="2" r:id="rId4"/>
+    <sheet name="layout" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="179">
   <si>
     <t>2015, 2016</t>
   </si>
@@ -538,6 +539,27 @@
   </si>
   <si>
     <t>iphone_share</t>
+  </si>
+  <si>
+    <t>State name</t>
+  </si>
+  <si>
+    <t>State abbreviation</t>
+  </si>
+  <si>
+    <t>Percent share of mobile traffic that came from iPhones</t>
+  </si>
+  <si>
+    <t>Type of device or technology</t>
+  </si>
+  <si>
+    <t>Percent of surveyed ownership in 2000</t>
+  </si>
+  <si>
+    <t>Percent of surveyed ownership in 2016</t>
+  </si>
+  <si>
+    <t>Percent change between 2000 and 2016 surveye prevalence</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1077,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1133,6 +1155,20 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1170,7 +1206,7 @@
     <xf numFmtId="3" fontId="25" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="25" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="91">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1223,6 +1259,13 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1239,6 +1282,13 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -3971,7 +4021,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D1:D6"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4067,6 +4117,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4080,7 +4131,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4664,8 +4715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4736,4 +4787,91 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>